--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -44,6 +44,9 @@
     <t>身高</t>
   </si>
   <si>
+    <t>Ability路径</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>Height</t>
   </si>
   <si>
+    <t>Abilities</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -65,10 +71,10 @@
     <t>float</t>
   </si>
   <si>
-    <t>熊孩子</t>
-  </si>
-  <si>
-    <t>Unit/Xhz/Prefabs/xhz.prefab</t>
+    <t>Unit/Player/Prefabs/Turner.prefab</t>
+  </si>
+  <si>
+    <t>Abilities/1.bytes</t>
   </si>
   <si>
     <t>炎爆</t>
@@ -1099,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I6"/>
+  <dimension ref="C2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H21" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1114,7 +1120,9 @@
     <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:9">
@@ -1134,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1156,8 +1164,11 @@
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1166,55 +1177,61 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="3:9">
+    <row r="6" s="2" customFormat="1" spans="3:10">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2">
         <v>1.6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1279,31 +1296,31 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:8">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="16.5" spans="3:8">
@@ -1317,11 +1334,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="3:8">
@@ -1332,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="3:8">
@@ -1346,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="3:8">
@@ -1360,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="3:8">
@@ -1374,10 +1391,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>Unit/Player/Prefabs/Turner.prefab</t>
   </si>
   <si>
-    <t>Abilities/1.bytes</t>
+    <t>Abilities/Player.bytes</t>
   </si>
   <si>
     <t>炎爆</t>
@@ -1108,7 +1108,7 @@
   <dimension ref="C2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H20:H21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Ability路径</t>
   </si>
   <si>
+    <t>FSM路径</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>Abilities</t>
   </si>
   <si>
+    <t>FSM</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>Abilities/Player.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Player/FsmConfig.bytes</t>
   </si>
   <si>
     <t>炎爆</t>
@@ -1105,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J6"/>
+  <dimension ref="C2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1121,11 +1130,12 @@
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9">
+    <row r="2" spans="5:11">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,8 +1151,14 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:11">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1177,46 +1196,52 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:11">
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="3:10">
+    <row r="6" s="2" customFormat="1" spans="3:11">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1225,13 +1250,16 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
         <v>1.6</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1296,31 +1324,31 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:8">
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="16.5" spans="3:8">
@@ -1334,11 +1362,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="3:8">
@@ -1349,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="3:8">
@@ -1363,10 +1391,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="3:8">
@@ -1377,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="3:8">
@@ -1391,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>Unit/Player/Prefabs/Turner.prefab</t>
   </si>
   <si>
-    <t>Abilities/Player.bytes</t>
+    <t>Unit/Player/Abilities.bytes</t>
   </si>
   <si>
     <t>Unit/Player/FsmConfig.bytes</t>
@@ -1117,7 +1117,7 @@
   <dimension ref="C2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1130,7 +1130,7 @@
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>float</t>
   </si>
   <si>
-    <t>Unit/Player/Prefabs/Turner.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Player/Abilities.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Player/FsmConfig.bytes</t>
+    <t>Unit/Man/Prefabs/Man.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Man/Abilities.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Man/FsmConfig.bytes</t>
   </si>
   <si>
     <t>炎爆</t>
@@ -1117,7 +1117,7 @@
   <dimension ref="C2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,18 +4,52 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillCollider" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Avatar = 1,
+Monster = 2,
+Gadget = 3,
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -77,6 +111,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>玩家</t>
+  </si>
+  <si>
     <t>Unit/Man/Prefabs/Man.prefab</t>
   </si>
   <si>
@@ -86,34 +123,16 @@
     <t>Unit/Man/FsmConfig.bytes</t>
   </si>
   <si>
-    <t>炎爆</t>
-  </si>
-  <si>
-    <t>Skill/Skill_1000/Prefabs/SkillExecution_1000.prefab</t>
-  </si>
-  <si>
-    <t>激光炮</t>
-  </si>
-  <si>
-    <t>Skill/Skill_1001/Prefabs/SkillExecution_1001.prefab</t>
-  </si>
-  <si>
-    <t>暗火</t>
-  </si>
-  <si>
-    <t>Skill/Skill_1002/Prefabs/SkillExecution_1002.prefab</t>
-  </si>
-  <si>
-    <t>飞剑</t>
-  </si>
-  <si>
-    <t>Skill/Skill_1003/Prefabs/SkillExecution_1003.prefab</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>Skill/Skill_1004/Prefabs/SkillExecution_1004.prefab</t>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/Abilities.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/FsmConfig.bytes</t>
   </si>
 </sst>
 </file>
@@ -126,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +169,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +309,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -610,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,33 +646,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,110 +685,109 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,47 +1140,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K6"/>
+  <dimension ref="C2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="20.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="20.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1241,192 +1267,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="3:11">
-      <c r="C6" s="2">
+    <row r="6" s="1" customFormat="1" spans="3:11">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2">
+      <c r="G6" s="4"/>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1">
         <v>1.6</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C2:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" s="1" customFormat="1" spans="5:5">
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:8">
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:8">
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:8">
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="16.5" spans="3:8">
-      <c r="C6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="3:8">
-      <c r="C7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="3:8">
-      <c r="C8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="3:8">
-      <c r="C9" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="3:8">
-      <c r="C10" s="4">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -75,12 +75,6 @@
     <t>预制体路径</t>
   </si>
   <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>Ability路径</t>
-  </si>
-  <si>
     <t>FSM路径</t>
   </si>
   <si>
@@ -93,12 +87,6 @@
     <t>Perfab</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Abilities</t>
-  </si>
-  <si>
     <t>FSM</t>
   </si>
   <si>
@@ -108,18 +96,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>玩家</t>
   </si>
   <si>
     <t>Unit/Man/Prefabs/Man.prefab</t>
   </si>
   <si>
-    <t>Unit/Man/Abilities.bytes</t>
-  </si>
-  <si>
     <t>Unit/Man/FsmConfig.bytes</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
   </si>
   <si>
     <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/Abilities.bytes</t>
   </si>
   <si>
     <t>Unit/Wolf/FsmConfig.bytes</t>
@@ -311,12 +290,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1140,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K7"/>
+  <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1155,13 +1134,12 @@
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="20.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="23.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11">
+    <row r="2" spans="5:9">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1177,14 +1155,8 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1206,14 +1178,8 @@
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1222,52 +1188,40 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1275,23 +1229,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6"/>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:9">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1299,19 +1248,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sonofvoid\MonkeyKing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7028ADE-8473-4540-803D-5E08C7C25C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -83,9 +75,15 @@
     <t>预制体路径</t>
   </si>
   <si>
+    <t>EntityConfig</t>
+  </si>
+  <si>
     <t>FSM路径</t>
   </si>
   <si>
+    <t>Controller路径</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -98,6 +96,9 @@
     <t>FSM</t>
   </si>
   <si>
+    <t>Controller</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -110,35 +111,56 @@
     <t>Unit/Man/Prefabs/Man.prefab</t>
   </si>
   <si>
+    <t>Unit/Man/ConfigEntity.bytes</t>
+  </si>
+  <si>
     <t>Unit/Man/FsmConfig.bytes</t>
   </si>
   <si>
+    <t>Unit/Man/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
     <t>狼</t>
   </si>
   <si>
     <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
   </si>
   <si>
+    <t>Unit/Wolf/ConfigEntity.bytes</t>
+  </si>
+  <si>
     <t>Unit/Wolf/FsmConfig.bytes</t>
   </si>
   <si>
+    <t>Unit/Wolf/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
     <t>骑士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Knight/Prefabs/Knight.prefab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Knight/ConfigEntity.bytes</t>
   </si>
   <si>
     <t>Unit/Knight/FsmConfig.bytes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Knight/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,7 +172,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -158,39 +179,165 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +350,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,10 +545,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -232,18 +807,62 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,33 +1149,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I6" sqref="I6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.4416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:11">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,8 +1190,14 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -595,8 +1219,14 @@
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -605,40 +1235,52 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -646,18 +1288,23 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6"/>
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -665,16 +1312,22 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -682,19 +1335,25 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -108,6 +108,36 @@
     <t>玩家</t>
   </si>
   <si>
+    <t>Unit/Knight/Prefabs/Knight.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Knight/ConfigEntity.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Knight/FsmConfig.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Knight/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/ConfigEntity.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/FsmConfig.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
     <t>Unit/Man/Prefabs/Man.prefab</t>
   </si>
   <si>
@@ -118,36 +148,6 @@
   </si>
   <si>
     <t>Unit/Man/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/ConfigEntity.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/FsmConfig.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>Unit/Knight/Prefabs/Knight.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Knight/ConfigEntity.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Knight/FsmConfig.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Knight/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -1158,19 +1158,19 @@
   <dimension ref="C2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.775" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.4416666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.1090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7727272727273" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1090909090909" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.66363636363636" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.7727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.4454545454545" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1090909090909" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
+    <row r="6" s="1" customFormat="1" ht="13" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,10 @@
     <t>Unit/Knight/Prefabs/Knight.prefab</t>
   </si>
   <si>
-    <t>Unit/Knight/ConfigEntity.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Knight/FsmConfig.bytes</t>
+    <t>Unit/Knight/ConfigEntity</t>
+  </si>
+  <si>
+    <t>Unit/Knight/FsmConfig</t>
   </si>
   <si>
     <t>Unit/Knight/Animations/FsmConfig.controller</t>
@@ -126,10 +126,10 @@
     <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
   </si>
   <si>
-    <t>Unit/Wolf/ConfigEntity.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/FsmConfig.bytes</t>
+    <t>Unit/Wolf/ConfigEntity</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/FsmConfig</t>
   </si>
   <si>
     <t>Unit/Wolf/Animations/FsmConfig.controller</t>
@@ -141,10 +141,10 @@
     <t>Unit/Man/Prefabs/Man.prefab</t>
   </si>
   <si>
-    <t>Unit/Man/ConfigEntity.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Man/FsmConfig.bytes</t>
+    <t>Unit/Man/ConfigEntity</t>
+  </si>
+  <si>
+    <t>Unit/Man/FsmConfig</t>
   </si>
   <si>
     <t>Unit/Man/Animations/FsmConfig.controller</t>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -183,59 +183,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +204,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -265,65 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -331,11 +336,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -352,25 +352,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,157 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,18 +578,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +617,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,11 +637,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,145 +649,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1157,20 +1157,20 @@
   <sheetPr/>
   <dimension ref="C2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.1090909090909" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7727272727273" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6636363636364" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1090909090909" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.66363636363636" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.7727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.4454545454545" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.4416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13" spans="3:11">
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>Unit/Man/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>刻晴</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/Prefabs/Girl_Keqing.prefab</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/ConfigEntity</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -155,9 +170,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -196,6 +211,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -204,62 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,55 +311,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,13 +367,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +505,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,157 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,17 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +585,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -583,6 +607,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,43 +658,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,19 +676,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,112 +697,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1155,13 +1170,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K8"/>
+  <dimension ref="C2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
@@ -1350,6 +1365,29 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -105,51 +105,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>玩家</t>
-  </si>
-  <si>
-    <t>Unit/Knight/Prefabs/Knight.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Knight/ConfigEntity</t>
-  </si>
-  <si>
-    <t>Unit/Knight/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/Knight/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/Prefabs/Wolf.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/ConfigEntity</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>Unit/Man/Prefabs/Man.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Man/ConfigEntity</t>
-  </si>
-  <si>
-    <t>Unit/Man/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/Man/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
     <t>刻晴</t>
   </si>
   <si>
@@ -163,6 +118,21 @@
   </si>
   <si>
     <t>Unit/KeQing/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>木桩</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/Prefabs/MuZhuang.prefab</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/ConfigEntity</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -170,9 +140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -198,6 +168,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,16 +190,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,46 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,69 +290,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,11 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,17 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,8 +584,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,31 +628,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1170,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K9"/>
+  <dimension ref="C2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
@@ -1186,7 +1156,8 @@
     <col min="7" max="7" width="28.775" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.4416666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="18.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11">
@@ -1302,7 +1273,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4"/>
@@ -1342,51 +1313,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="8" spans="8:11">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="19710" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 Avatar = 1,
 Monster = 2,
 Gadget = 3,
-</t>
+Equip = 6,</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Unit/MuZhuang/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>木剑</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/Prefabs/MuJian.prefab</t>
   </si>
 </sst>
 </file>
@@ -140,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -167,6 +173,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -174,37 +204,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,40 +272,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,30 +286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,24 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,79 +343,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,67 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,31 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,17 +537,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,22 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +624,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1143,7 +1149,7 @@
   <dimension ref="C2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1313,8 +1319,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="8:11">
-      <c r="H8" s="1"/>
+    <row r="8" spans="3:11">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Unit/MuJian/Prefabs/MuJian.prefab</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -146,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -173,9 +179,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +201,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -211,8 +284,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,93 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +349,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,145 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,21 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,26 +567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,8 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,16 +610,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1148,8 +1154,8 @@
   <sheetPr/>
   <dimension ref="C2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1333,8 +1339,12 @@
         <v>29</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -75,7 +75,7 @@
     <t>预制体路径</t>
   </si>
   <si>
-    <t>EntityConfig</t>
+    <t>ActorConfig</t>
   </si>
   <si>
     <t>FSM路径</t>
@@ -111,7 +111,7 @@
     <t>Unit/KeQing/Prefabs/Girl_Keqing.prefab</t>
   </si>
   <si>
-    <t>Unit/KeQing/ConfigEntity</t>
+    <t>Unit/KeQing/ConfigActor</t>
   </si>
   <si>
     <t>Unit/KeQing/FsmConfig</t>
@@ -126,7 +126,7 @@
     <t>Unit/MuZhuang/Prefabs/MuZhuang.prefab</t>
   </si>
   <si>
-    <t>Unit/MuZhuang/ConfigEntity</t>
+    <t>Unit/MuZhuang/ConfigActor</t>
   </si>
   <si>
     <t>Unit/MuZhuang/FsmConfig</t>
@@ -153,8 +153,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -187,7 +187,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,122 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +349,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,180 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,35 +543,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,8 +591,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,32 +608,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1154,8 +1154,8 @@
   <sheetPr/>
   <dimension ref="C2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19710" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
 Avatar = 1,
 Monster = 2,
 Gadget = 3,
+Zone = 5,
 Equip = 6,</t>
         </r>
       </text>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>碰撞盒</t>
   </si>
   <si>
     <t>刻晴</t>
@@ -152,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -187,38 +191,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,34 +259,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,54 +274,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,21 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +588,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +634,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,145 +650,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1152,13 +1156,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K8"/>
+  <dimension ref="C2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
@@ -1278,72 +1282,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
+    <row r="6" customFormat="1" spans="3:11">
       <c r="C6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:11">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>Unit/MuJian/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>Unit/Chest/Prefabs/Chest.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Chest/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/Chest/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/Chest/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -327,12 +342,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1156,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K9"/>
+  <dimension ref="C2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1367,6 +1382,29 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>Unit/Chest/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/Prefabs/Butterfly.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -342,12 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1171,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K10"/>
+  <dimension ref="C2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1405,6 +1420,29 @@
         <v>37</v>
       </c>
     </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="19710" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,9 @@
     <t>木桩</t>
   </si>
   <si>
+    <t>Unit_MuZhuang</t>
+  </si>
+  <si>
     <t>Unit/MuZhuang/Prefabs/MuZhuang.prefab</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>宝箱</t>
+  </si>
+  <si>
+    <t>Unit_Chest</t>
   </si>
   <si>
     <t>Unit/Chest/Prefabs/Chest.prefab</t>
@@ -186,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -214,12 +220,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -227,36 +294,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -265,8 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,78 +333,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,49 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,133 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,21 +580,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,8 +600,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -620,7 +613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +629,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,19 +666,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,145 +686,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1189,7 +1195,7 @@
   <dimension ref="C2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1363,17 +1369,20 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="3:11">
@@ -1384,17 +1393,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:11">
@@ -1405,19 +1414,22 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:11">
@@ -1428,19 +1440,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>Unit/Butterfly/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>Unit_Fox</t>
+  </si>
+  <si>
+    <t>Unit/Fox/Prefabs/Fox.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Fox/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/Fox/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/Fox/Animations/FsmConfig.controller</t>
   </si>
 </sst>
 </file>
@@ -192,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -227,22 +245,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,113 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -389,12 +407,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,7 +527,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,157 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,17 +601,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +638,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,49 +685,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1192,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K11"/>
+  <dimension ref="C2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1455,6 +1473,32 @@
         <v>44</v>
       </c>
     </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19710" windowHeight="11670"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -112,6 +112,12 @@
     <t>刻晴</t>
   </si>
   <si>
+    <t>Unit_KeQing</t>
+  </si>
+  <si>
+    <t>Desc_KeQing</t>
+  </si>
+  <si>
     <t>Unit/KeQing/Prefabs/Girl_Keqing.prefab</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
   </si>
   <si>
     <t>蝴蝶</t>
+  </si>
+  <si>
+    <t>Unit_Butterfly</t>
   </si>
   <si>
     <t>Unit/Butterfly/Prefabs/Butterfly.prefab</t>
@@ -210,12 +219,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +246,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -244,56 +280,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,48 +319,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,8 +343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,23 +353,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -391,6 +401,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -407,97 +422,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,85 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,21 +613,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,12 +631,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -647,24 +660,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +679,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,138 +731,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -860,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1213,7 +1231,7 @@
   <dimension ref="C2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1363,18 +1381,23 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:11">
@@ -1385,22 +1408,22 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="3:11">
@@ -1411,17 +1434,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:11">
@@ -1432,22 +1455,22 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="3:11">
@@ -1458,19 +1481,23 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="3:11">
@@ -1481,22 +1508,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -85,7 +98,10 @@
     <t>Controller路径</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>Desc</t>
@@ -112,7 +128,7 @@
     <t>刻晴</t>
   </si>
   <si>
-    <t>Unit_KeQing</t>
+    <t>Chest</t>
   </si>
   <si>
     <t>Desc_KeQing</t>
@@ -133,7 +149,7 @@
     <t>木桩</t>
   </si>
   <si>
-    <t>Unit_MuZhuang</t>
+    <t>Stake</t>
   </si>
   <si>
     <t>Unit/MuZhuang/Prefabs/MuZhuang.prefab</t>
@@ -163,7 +179,7 @@
     <t>宝箱</t>
   </si>
   <si>
-    <t>Unit_Chest</t>
+    <t>Fox</t>
   </si>
   <si>
     <t>Unit/Chest/Prefabs/Chest.prefab</t>
@@ -181,7 +197,7 @@
     <t>蝴蝶</t>
   </si>
   <si>
-    <t>Unit_Butterfly</t>
+    <t>KeQing</t>
   </si>
   <si>
     <t>Unit/Butterfly/Prefabs/Butterfly.prefab</t>
@@ -199,7 +215,7 @@
     <t>狐狸</t>
   </si>
   <si>
-    <t>Unit_Fox</t>
+    <t>Butterfly</t>
   </si>
   <si>
     <t>Unit/Fox/Prefabs/Fox.prefab</t>
@@ -217,14 +233,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,61 +262,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,6 +319,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -390,10 +379,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -401,11 +416,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -422,49 +432,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,121 +570,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,21 +623,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,6 +655,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,148 +726,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -876,58 +886,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1228,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K12"/>
+  <dimension ref="C2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1240,15 +1250,15 @@
     <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.775" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.4416666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.775" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.4416666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="2" customWidth="1"/>
+    <col min="12" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11">
+    <row r="2" spans="5:12">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1280,11 @@
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1285,22 +1298,25 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1318,43 +1334,49 @@
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:12">
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="3:11">
+    <row r="6" customFormat="1" spans="3:12">
       <c r="C6" s="1">
         <v>-1</v>
       </c>
@@ -1362,16 +1384,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -1379,15 +1401,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1399,8 +1421,11 @@
       <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:12">
       <c r="C8" s="2">
         <v>2</v>
       </c>
@@ -1408,12 +1433,12 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1425,8 +1450,11 @@
       <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:12">
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -1434,20 +1462,23 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:12">
       <c r="C10" s="2">
         <v>4</v>
       </c>
@@ -1455,25 +1486,28 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:12">
       <c r="C11" s="2">
         <v>5</v>
       </c>
@@ -1481,26 +1515,29 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:12">
       <c r="C12" s="2">
         <v>6</v>
       </c>
@@ -1508,22 +1545,25 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -128,94 +128,94 @@
     <t>刻晴</t>
   </si>
   <si>
+    <t>KeQing</t>
+  </si>
+  <si>
+    <t>Desc_KeQing</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/Prefabs/Girl_Keqing.prefab</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/KeQing/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>木桩</t>
+  </si>
+  <si>
+    <t>Stake</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/Prefabs/MuZhuang.prefab</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>木剑</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/Prefabs/MuJian.prefab</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
     <t>Chest</t>
   </si>
   <si>
-    <t>Desc_KeQing</t>
-  </si>
-  <si>
-    <t>Unit/KeQing/Prefabs/Girl_Keqing.prefab</t>
-  </si>
-  <si>
-    <t>Unit/KeQing/ConfigActor</t>
-  </si>
-  <si>
-    <t>Unit/KeQing/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/KeQing/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>木桩</t>
-  </si>
-  <si>
-    <t>Stake</t>
-  </si>
-  <si>
-    <t>Unit/MuZhuang/Prefabs/MuZhuang.prefab</t>
-  </si>
-  <si>
-    <t>Unit/MuZhuang/ConfigActor</t>
-  </si>
-  <si>
-    <t>Unit/MuZhuang/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/MuZhuang/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>木剑</t>
-  </si>
-  <si>
-    <t>Unit/MuJian/Prefabs/MuJian.prefab</t>
-  </si>
-  <si>
-    <t>Unit/MuJian/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/MuJian/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>宝箱</t>
+    <t>Unit/Chest/Prefabs/Chest.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Chest/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/Chest/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/Chest/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/Prefabs/Butterfly.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/ConfigActor</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/FsmConfig</t>
+  </si>
+  <si>
+    <t>Unit/Butterfly/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>狐狸</t>
   </si>
   <si>
     <t>Fox</t>
-  </si>
-  <si>
-    <t>Unit/Chest/Prefabs/Chest.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Chest/ConfigActor</t>
-  </si>
-  <si>
-    <t>Unit/Chest/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/Chest/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>蝴蝶</t>
-  </si>
-  <si>
-    <t>KeQing</t>
-  </si>
-  <si>
-    <t>Unit/Butterfly/Prefabs/Butterfly.prefab</t>
-  </si>
-  <si>
-    <t>Unit/Butterfly/ConfigActor</t>
-  </si>
-  <si>
-    <t>Unit/Butterfly/FsmConfig</t>
-  </si>
-  <si>
-    <t>Unit/Butterfly/Animations/FsmConfig.controller</t>
-  </si>
-  <si>
-    <t>狐狸</t>
-  </si>
-  <si>
-    <t>Butterfly</t>
   </si>
   <si>
     <t>Unit/Fox/Prefabs/Fox.prefab</t>
@@ -406,12 +406,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1241,7 +1241,7 @@
   <dimension ref="C2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1523,7 +1523,6 @@
       <c r="G11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="5"/>
       <c r="I11" s="2" t="s">
         <v>45</v>
       </c>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Unit/Fox/Animations/FsmConfig.controller</t>
+  </si>
+  <si>
+    <t>木剑阵</t>
+  </si>
+  <si>
+    <t>Unit/MuJian/ConfigActor</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L12"/>
+  <dimension ref="C2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1255,7 +1261,7 @@
     <col min="9" max="9" width="31.4416666666667" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.1083333333333" customWidth="1"/>
     <col min="11" max="11" width="18.375" style="2" customWidth="1"/>
-    <col min="12" max="16383" width="9" style="2"/>
+    <col min="12" max="14507" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:12">
@@ -1565,6 +1571,28 @@
         <v>54</v>
       </c>
     </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -1247,21 +1247,20 @@
   <dimension ref="C2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.4416666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="2" customWidth="1"/>
-    <col min="12" max="14507" width="9" style="2"/>
+    <col min="3" max="3" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.8833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:12">
@@ -1382,7 +1381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="3:12">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="1">
         <v>-1</v>
       </c>
@@ -1393,11 +1392,8 @@
         <v>19</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="G6"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="1">

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Unit/MuJian/ConfigActor</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>Unit/Bullet/Prefabs/Bullet.prefab</t>
+  </si>
+  <si>
+    <t>Unit/Bullet/ConfigActor</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L13"/>
+  <dimension ref="C2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1589,6 +1598,26 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
